--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Input_Data/DWRSA_Table.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Input_Data/DWRSA_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WBCD_SA_DemandCalc_Jacob\Input_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\WeberBasinVulnerability\WeberBasinVulnerability\1 - Scenario Processing\Annual Service Area Demand Scenarios\Input_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1A9D7-B29B-476B-B214-09A607CF6B68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F90192-C311-47CB-AC92-DE9CDF17530F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2730" windowWidth="15375" windowHeight="7875" xr2:uid="{F5E3B674-AD72-4F85-8815-08BC5CC289ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5E3B674-AD72-4F85-8815-08BC5CC289ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SA</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>2nd</t>
+  </si>
+  <si>
+    <t>Additional/Future Use</t>
+  </si>
+  <si>
+    <t>Additional</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06615C1-F614-4486-8C37-4472286F13E0}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,8 +1059,28 @@
         <v>264700</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D2:D21">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1083,7 +1109,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D20</xm:sqref>
+          <xm:sqref>D2:D21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
